--- a/tx_fifo_timing_mux2_logic_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux2_logic_tsmc2p_meas.xlsx
@@ -676,10 +676,10 @@
         <v>24</v>
       </c>
       <c r="L2">
-        <v>-8.51406E-11</v>
+        <v>3.47946E-11</v>
       </c>
       <c r="M2">
-        <v>1.59795E-10</v>
+        <v>3.98594E-11</v>
       </c>
       <c r="N2">
         <v>2.82279E-09</v>
@@ -720,10 +720,10 @@
         <v>24</v>
       </c>
       <c r="L3">
-        <v>-8.6044E-11</v>
+        <v>3.47163E-11</v>
       </c>
       <c r="M3">
-        <v>1.59716E-10</v>
+        <v>3.8956E-11</v>
       </c>
       <c r="N3">
         <v>2.22631E-10</v>
@@ -764,10 +764,10 @@
         <v>24</v>
       </c>
       <c r="L4">
-        <v>-8.37451E-11</v>
+        <v>3.44364E-11</v>
       </c>
       <c r="M4">
-        <v>1.59436E-10</v>
+        <v>4.12549E-11</v>
       </c>
       <c r="N4">
         <v>5.41131E-08</v>
@@ -808,10 +808,10 @@
         <v>24</v>
       </c>
       <c r="L5">
-        <v>-6.05119E-11</v>
+        <v>5.36113E-11</v>
       </c>
       <c r="M5">
-        <v>1.78611E-10</v>
+        <v>6.44881E-11</v>
       </c>
       <c r="N5">
         <v>5.84819E-10</v>
@@ -852,10 +852,10 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>-6.13307E-11</v>
+        <v>4.89444E-11</v>
       </c>
       <c r="M6">
-        <v>1.73944E-10</v>
+        <v>6.366929999999999E-11</v>
       </c>
       <c r="N6">
         <v>9.7233E-09</v>
@@ -896,10 +896,10 @@
         <v>24</v>
       </c>
       <c r="L7">
-        <v>-8.03946E-11</v>
+        <v>3.94789E-11</v>
       </c>
       <c r="M7">
-        <v>1.64479E-10</v>
+        <v>4.46054E-11</v>
       </c>
       <c r="N7">
         <v>1.43719E-10</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="L8">
-        <v>-7.7957E-11</v>
+        <v>3.90522E-11</v>
       </c>
       <c r="M8">
-        <v>1.64052E-10</v>
+        <v>4.7043E-11</v>
       </c>
       <c r="N8">
         <v>1.04607E-08</v>
@@ -984,10 +984,10 @@
         <v>50</v>
       </c>
       <c r="L9">
-        <v>-9.062879999999999E-11</v>
+        <v>3.07636E-11</v>
       </c>
       <c r="M9">
-        <v>1.55764E-10</v>
+        <v>3.43712E-11</v>
       </c>
       <c r="N9">
         <v>2.18942E-09</v>
@@ -1028,10 +1028,10 @@
         <v>50</v>
       </c>
       <c r="L10">
-        <v>-8.81382E-11</v>
+        <v>3.06412E-11</v>
       </c>
       <c r="M10">
-        <v>1.55641E-10</v>
+        <v>3.68618E-11</v>
       </c>
       <c r="N10">
         <v>2.93321E-07</v>
@@ -1072,10 +1072,10 @@
         <v>50</v>
       </c>
       <c r="L11">
-        <v>-9.69925E-11</v>
+        <v>2.54265E-11</v>
       </c>
       <c r="M11">
-        <v>1.50426E-10</v>
+        <v>2.80075E-11</v>
       </c>
       <c r="N11">
         <v>2.88199E-09</v>
@@ -1116,10 +1116,10 @@
         <v>50</v>
       </c>
       <c r="L12">
-        <v>-9.392830000000001E-11</v>
+        <v>2.64261E-11</v>
       </c>
       <c r="M12">
-        <v>1.51426E-10</v>
+        <v>3.10717E-11</v>
       </c>
       <c r="N12">
         <v>3.25657E-07</v>
@@ -1160,10 +1160,10 @@
         <v>58</v>
       </c>
       <c r="L13">
-        <v>-6.76419E-11</v>
+        <v>3.37108E-11</v>
       </c>
       <c r="M13">
-        <v>1.58711E-10</v>
+        <v>5.73581E-11</v>
       </c>
       <c r="N13">
         <v>4.57336E-10</v>
@@ -1204,10 +1204,10 @@
         <v>58</v>
       </c>
       <c r="L14">
-        <v>-6.70304E-11</v>
+        <v>3.20801E-11</v>
       </c>
       <c r="M14">
-        <v>1.5708E-10</v>
+        <v>5.79696E-11</v>
       </c>
       <c r="N14">
         <v>1.04518E-07</v>
@@ -1248,10 +1248,10 @@
         <v>58</v>
       </c>
       <c r="L15">
-        <v>-8.3742E-11</v>
+        <v>2.71466E-11</v>
       </c>
       <c r="M15">
-        <v>1.52147E-10</v>
+        <v>4.1258E-11</v>
       </c>
       <c r="N15">
         <v>6.94713E-10</v>
@@ -1292,10 +1292,10 @@
         <v>58</v>
       </c>
       <c r="L16">
-        <v>-8.07785E-11</v>
+        <v>2.75881E-11</v>
       </c>
       <c r="M16">
-        <v>1.52588E-10</v>
+        <v>4.42215E-11</v>
       </c>
       <c r="N16">
         <v>1.20154E-07</v>
@@ -1336,10 +1336,10 @@
         <v>58</v>
       </c>
       <c r="L17">
-        <v>-8.66748E-11</v>
+        <v>4.9294E-11</v>
       </c>
       <c r="M17">
-        <v>1.74294E-10</v>
+        <v>3.83252E-11</v>
       </c>
       <c r="N17">
         <v>1.25653E-09</v>
@@ -1380,10 +1380,10 @@
         <v>58</v>
       </c>
       <c r="L18">
-        <v>-8.51669E-11</v>
+        <v>4.66169E-11</v>
       </c>
       <c r="M18">
-        <v>1.71617E-10</v>
+        <v>3.98331E-11</v>
       </c>
       <c r="N18">
         <v>1.13514E-07</v>
@@ -1424,10 +1424,10 @@
         <v>58</v>
       </c>
       <c r="L19">
-        <v>-9.51941E-11</v>
+        <v>3.65271E-11</v>
       </c>
       <c r="M19">
-        <v>1.61527E-10</v>
+        <v>2.98059E-11</v>
       </c>
       <c r="N19">
         <v>1.24791E-09</v>
@@ -1468,10 +1468,10 @@
         <v>58</v>
       </c>
       <c r="L20">
-        <v>-9.245459999999999E-11</v>
+        <v>3.69596E-11</v>
       </c>
       <c r="M20">
-        <v>1.6196E-10</v>
+        <v>3.25454E-11</v>
       </c>
       <c r="N20">
         <v>1.22201E-07</v>
@@ -1526,10 +1526,10 @@
         <v>69</v>
       </c>
       <c r="L22" s="1">
-        <v>-9.69925E-11</v>
+        <v>2.54265E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>1.50426E-10</v>
+        <v>2.80075E-11</v>
       </c>
       <c r="N22" s="1">
         <v>1.43719E-10</v>
@@ -1540,10 +1540,10 @@
         <v>70</v>
       </c>
       <c r="L23" s="1">
-        <v>-6.05119E-11</v>
+        <v>5.36113E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>1.78611E-10</v>
+        <v>6.44881E-11</v>
       </c>
       <c r="N23" s="1">
         <v>3.25657E-07</v>
@@ -1574,10 +1574,10 @@
         <v>75</v>
       </c>
       <c r="L28" s="1">
-        <v>-8.22892052631579E-11</v>
+        <v>3.622182631578947E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>1.612217894736842E-10</v>
+        <v>4.271079473684212E-11</v>
       </c>
       <c r="N28" s="1">
         <v>6.137705042105263E-08</v>
@@ -1588,10 +1588,10 @@
         <v>76</v>
       </c>
       <c r="L29" s="1">
+        <v>8.025408326705882E-12</v>
+      </c>
+      <c r="M29" s="1">
         <v>1.067408249499564E-11</v>
-      </c>
-      <c r="M29" s="1">
-        <v>8.025367724507919E-12</v>
       </c>
       <c r="N29" s="1">
         <v>9.647770383511971E-08</v>
@@ -1602,10 +1602,10 @@
         <v>77</v>
       </c>
       <c r="L30" s="1">
-        <v>12.97142494068367</v>
+        <v>22.15627742438686</v>
       </c>
       <c r="M30" s="1">
-        <v>4.977843100927668</v>
+        <v>24.99153331321233</v>
       </c>
       <c r="N30" s="1">
         <v>157.1885634341715</v>

--- a/tx_fifo_timing_mux2_logic_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux2_logic_tsmc2p_meas.xlsx
@@ -676,13 +676,13 @@
         <v>24</v>
       </c>
       <c r="L2">
-        <v>3.47946E-11</v>
+        <v>2.45802E-11</v>
       </c>
       <c r="M2">
-        <v>3.98594E-11</v>
+        <v>2.72807E-11</v>
       </c>
       <c r="N2">
-        <v>2.82279E-09</v>
+        <v>2.96826E-09</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -720,13 +720,13 @@
         <v>24</v>
       </c>
       <c r="L3">
-        <v>3.47163E-11</v>
+        <v>2.4582E-11</v>
       </c>
       <c r="M3">
-        <v>3.8956E-11</v>
+        <v>2.68058E-11</v>
       </c>
       <c r="N3">
-        <v>2.22631E-10</v>
+        <v>3.94465E-10</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -764,13 +764,13 @@
         <v>24</v>
       </c>
       <c r="L4">
-        <v>3.44364E-11</v>
+        <v>2.42918E-11</v>
       </c>
       <c r="M4">
-        <v>4.12549E-11</v>
+        <v>2.79996E-11</v>
       </c>
       <c r="N4">
-        <v>5.41131E-08</v>
+        <v>5.42595E-08</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -808,13 +808,13 @@
         <v>24</v>
       </c>
       <c r="L5">
-        <v>5.36113E-11</v>
+        <v>3.98441E-11</v>
       </c>
       <c r="M5">
-        <v>6.44881E-11</v>
+        <v>4.39084E-11</v>
       </c>
       <c r="N5">
-        <v>5.84819E-10</v>
+        <v>4.33947E-11</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -852,13 +852,13 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>4.89444E-11</v>
+        <v>3.67963E-11</v>
       </c>
       <c r="M6">
-        <v>6.366929999999999E-11</v>
+        <v>4.27466E-11</v>
       </c>
       <c r="N6">
-        <v>9.7233E-09</v>
+        <v>9.13603E-09</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -896,13 +896,13 @@
         <v>24</v>
       </c>
       <c r="L7">
-        <v>3.94789E-11</v>
+        <v>2.81201E-11</v>
       </c>
       <c r="M7">
-        <v>4.46054E-11</v>
+        <v>3.07585E-11</v>
       </c>
       <c r="N7">
-        <v>1.43719E-10</v>
+        <v>2.70892E-10</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -940,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="L8">
-        <v>3.90522E-11</v>
+        <v>2.78147E-11</v>
       </c>
       <c r="M8">
-        <v>4.7043E-11</v>
+        <v>3.193E-11</v>
       </c>
       <c r="N8">
-        <v>1.04607E-08</v>
+        <v>1.04031E-08</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -984,13 +984,13 @@
         <v>50</v>
       </c>
       <c r="L9">
-        <v>3.07636E-11</v>
+        <v>2.17247E-11</v>
       </c>
       <c r="M9">
-        <v>3.43712E-11</v>
+        <v>2.36126E-11</v>
       </c>
       <c r="N9">
-        <v>2.18942E-09</v>
+        <v>2.316E-09</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1028,13 +1028,13 @@
         <v>50</v>
       </c>
       <c r="L10">
-        <v>3.06412E-11</v>
+        <v>2.1538E-11</v>
       </c>
       <c r="M10">
-        <v>3.68618E-11</v>
+        <v>2.5031E-11</v>
       </c>
       <c r="N10">
-        <v>2.93321E-07</v>
+        <v>2.93327E-07</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1072,13 +1072,13 @@
         <v>50</v>
       </c>
       <c r="L11">
-        <v>2.54265E-11</v>
+        <v>1.78898E-11</v>
       </c>
       <c r="M11">
-        <v>2.80075E-11</v>
+        <v>1.93823E-11</v>
       </c>
       <c r="N11">
-        <v>2.88199E-09</v>
+        <v>2.90323E-09</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1116,13 +1116,13 @@
         <v>50</v>
       </c>
       <c r="L12">
-        <v>2.64261E-11</v>
+        <v>1.84931E-11</v>
       </c>
       <c r="M12">
-        <v>3.10717E-11</v>
+        <v>2.12889E-11</v>
       </c>
       <c r="N12">
-        <v>3.25657E-07</v>
+        <v>3.25766E-07</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1160,13 +1160,13 @@
         <v>58</v>
       </c>
       <c r="L13">
-        <v>3.37108E-11</v>
+        <v>2.52996E-11</v>
       </c>
       <c r="M13">
-        <v>5.73581E-11</v>
+        <v>3.82061E-11</v>
       </c>
       <c r="N13">
-        <v>4.57336E-10</v>
+        <v>5.7551E-10</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1204,13 +1204,13 @@
         <v>58</v>
       </c>
       <c r="L14">
-        <v>3.20801E-11</v>
+        <v>2.41198E-11</v>
       </c>
       <c r="M14">
-        <v>5.79696E-11</v>
+        <v>3.8291E-11</v>
       </c>
       <c r="N14">
-        <v>1.04518E-07</v>
+        <v>1.04629E-07</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1248,13 +1248,13 @@
         <v>58</v>
       </c>
       <c r="L15">
-        <v>2.71466E-11</v>
+        <v>1.93653E-11</v>
       </c>
       <c r="M15">
-        <v>4.1258E-11</v>
+        <v>2.80726E-11</v>
       </c>
       <c r="N15">
-        <v>6.94713E-10</v>
+        <v>7.82544E-10</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1292,13 +1292,13 @@
         <v>58</v>
       </c>
       <c r="L16">
-        <v>2.75881E-11</v>
+        <v>1.9631E-11</v>
       </c>
       <c r="M16">
-        <v>4.42215E-11</v>
+        <v>2.97678E-11</v>
       </c>
       <c r="N16">
-        <v>1.20154E-07</v>
+        <v>1.203E-07</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1336,13 +1336,13 @@
         <v>58</v>
       </c>
       <c r="L17">
-        <v>4.9294E-11</v>
+        <v>3.39343E-11</v>
       </c>
       <c r="M17">
-        <v>3.83252E-11</v>
+        <v>2.683E-11</v>
       </c>
       <c r="N17">
-        <v>1.25653E-09</v>
+        <v>9.6906E-10</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1380,13 +1380,13 @@
         <v>58</v>
       </c>
       <c r="L18">
-        <v>4.66169E-11</v>
+        <v>3.21576E-11</v>
       </c>
       <c r="M18">
-        <v>3.98331E-11</v>
+        <v>2.72798E-11</v>
       </c>
       <c r="N18">
-        <v>1.13514E-07</v>
+        <v>1.12879E-07</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1424,13 +1424,13 @@
         <v>58</v>
       </c>
       <c r="L19">
-        <v>3.65271E-11</v>
+        <v>2.53892E-11</v>
       </c>
       <c r="M19">
-        <v>2.98059E-11</v>
+        <v>2.07002E-11</v>
       </c>
       <c r="N19">
-        <v>1.24791E-09</v>
+        <v>1.35973E-09</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1468,13 +1468,13 @@
         <v>58</v>
       </c>
       <c r="L20">
-        <v>3.69596E-11</v>
+        <v>2.55933E-11</v>
       </c>
       <c r="M20">
-        <v>3.25454E-11</v>
+        <v>2.2265E-11</v>
       </c>
       <c r="N20">
-        <v>1.22201E-07</v>
+        <v>1.22108E-07</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1">
@@ -1526,13 +1526,13 @@
         <v>69</v>
       </c>
       <c r="L22" s="1">
-        <v>2.54265E-11</v>
+        <v>1.78898E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>2.80075E-11</v>
+        <v>1.93823E-11</v>
       </c>
       <c r="N22" s="1">
-        <v>1.43719E-10</v>
+        <v>4.33947E-11</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1">
@@ -1540,13 +1540,13 @@
         <v>70</v>
       </c>
       <c r="L23" s="1">
-        <v>5.36113E-11</v>
+        <v>3.98441E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>6.44881E-11</v>
+        <v>4.39084E-11</v>
       </c>
       <c r="N23" s="1">
-        <v>3.25657E-07</v>
+        <v>3.25766E-07</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1">
@@ -1574,13 +1574,13 @@
         <v>75</v>
       </c>
       <c r="L28" s="1">
-        <v>3.622182631578947E-11</v>
+        <v>2.585078421052632E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>4.271079473684212E-11</v>
+        <v>2.906088947368421E-11</v>
       </c>
       <c r="N28" s="1">
-        <v>6.137705042105263E-08</v>
+        <v>6.133635345789475E-08</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1">
@@ -1588,13 +1588,13 @@
         <v>76</v>
       </c>
       <c r="L29" s="1">
-        <v>8.025408326705882E-12</v>
+        <v>5.950948173036945E-12</v>
       </c>
       <c r="M29" s="1">
-        <v>1.067408249499564E-11</v>
+        <v>6.969048801582363E-12</v>
       </c>
       <c r="N29" s="1">
-        <v>9.647770383511971E-08</v>
+        <v>9.649573189803124E-08</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="1" customFormat="1">
@@ -1602,13 +1602,13 @@
         <v>77</v>
       </c>
       <c r="L30" s="1">
-        <v>22.15627742438686</v>
+        <v>23.02037773621485</v>
       </c>
       <c r="M30" s="1">
-        <v>24.99153331321233</v>
+        <v>23.98085168003242</v>
       </c>
       <c r="N30" s="1">
-        <v>157.1885634341715</v>
+        <v>157.3222509294951</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1"/>
